--- a/Streamlit/data/rough_samples.xlsx
+++ b/Streamlit/data/rough_samples.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE47B3D-B1EA-FF4E-8F56-683CAA687E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8A6F5-79ED-824F-A224-42604D930835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="6340" yWindow="7620" windowWidth="22520" windowHeight="13040" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Gaussian" sheetId="3" r:id="rId2"/>
+    <sheet name="SuperGaussian" sheetId="6" r:id="rId3"/>
+    <sheet name="Lorentzian" sheetId="4" r:id="rId4"/>
+    <sheet name="Voigt" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>pt2</t>
   </si>
@@ -57,6 +61,42 @@
   </si>
   <si>
     <t>ann1</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Agaussian</t>
+  </si>
+  <si>
+    <t>Abase</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Alorentzian</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -410,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECA98E3-6705-854C-AD15-FB892A14E7BE}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,4 +1218,703 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.91</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.82</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>2250</v>
+      </c>
+      <c r="G5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3743A7B-AE46-E74D-88F2-EB12A02079E0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.3049E-2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.91</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>1.01</v>
+      </c>
+      <c r="F3">
+        <v>0.82</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>2250</v>
+      </c>
+      <c r="G5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0.82</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.61</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B936C-6A77-9A4D-AA50-16B3467AF53C}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.85</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE1DD3-CACF-0242-99AA-C0A0D324962E}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>9000</v>
+      </c>
+      <c r="D7">
+        <v>9000</v>
+      </c>
+      <c r="E7">
+        <v>9000</v>
+      </c>
+      <c r="F7">
+        <v>9000</v>
+      </c>
+      <c r="G7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>